--- a/data/price_action_analysis.xlsx
+++ b/data/price_action_analysis.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="^CNXREALTY" sheetId="1" r:id="rId1"/>
-    <sheet name="ANANTRAJ.NS" sheetId="2" r:id="rId2"/>
-    <sheet name="BRIGADE.NS" sheetId="3" r:id="rId3"/>
-    <sheet name="DLF.NS" sheetId="4" r:id="rId4"/>
-    <sheet name="SOBHA.NS" sheetId="5" r:id="rId5"/>
-    <sheet name="RAYMOND.NS" sheetId="6" r:id="rId6"/>
-    <sheet name="PHOENIXLTD.NS" sheetId="7" r:id="rId7"/>
-    <sheet name="PRESTIGE.NS" sheetId="8" r:id="rId8"/>
-    <sheet name="LODHA.NS" sheetId="9" r:id="rId9"/>
-    <sheet name="GODREJPROP.NS" sheetId="10" r:id="rId10"/>
-    <sheet name="OBEROIRLTY.NS" sheetId="11" r:id="rId11"/>
+    <sheet name="Nifty Realty" sheetId="1" r:id="rId1"/>
+    <sheet name="Anant Raj" sheetId="2" r:id="rId2"/>
+    <sheet name="Brigade Enterprises" sheetId="3" r:id="rId3"/>
+    <sheet name="DLF" sheetId="4" r:id="rId4"/>
+    <sheet name="Sobha" sheetId="5" r:id="rId5"/>
+    <sheet name="Raymond" sheetId="6" r:id="rId6"/>
+    <sheet name="Phoenix Mills" sheetId="7" r:id="rId7"/>
+    <sheet name="Prestige Estates Projects" sheetId="8" r:id="rId8"/>
+    <sheet name="Lodha Developers" sheetId="9" r:id="rId9"/>
+    <sheet name="Godrej Properties" sheetId="10" r:id="rId10"/>
+    <sheet name="Oberoi Realty" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1918,37 +1918,37 @@
         <v>-7.52</v>
       </c>
       <c r="J17">
-        <v>-3.12</v>
+        <v>-2.88</v>
       </c>
       <c r="O17">
-        <v>-5.32</v>
+        <v>-5.2</v>
       </c>
       <c r="P17">
-        <v>-16.01</v>
+        <v>-15.8</v>
       </c>
       <c r="Q17">
-        <v>76.20999999999999</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="R17">
-        <v>82.47</v>
+        <v>83.63</v>
       </c>
       <c r="S17">
-        <v>-37.14</v>
+        <v>-37.66</v>
       </c>
       <c r="T17">
-        <v>-22.81</v>
+        <v>-23.13</v>
       </c>
       <c r="U17">
-        <v>-39.69</v>
+        <v>-40.25</v>
       </c>
       <c r="V17">
-        <v>-22.03</v>
+        <v>-22.35</v>
       </c>
       <c r="W17">
-        <v>44.82</v>
+        <v>45.46</v>
       </c>
       <c r="X17">
-        <v>18.16</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1977,7 +1977,7 @@
         <v>0.95</v>
       </c>
       <c r="J18">
-        <v>-3.27</v>
+        <v>-3.26</v>
       </c>
       <c r="K18">
         <v>2.78</v>
@@ -2221,16 +2221,16 @@
         <v>2858.29</v>
       </c>
       <c r="R3">
-        <v>-2341.9</v>
+        <v>-2341.89</v>
       </c>
       <c r="S3">
-        <v>-3354.19</v>
+        <v>-3354.2</v>
       </c>
       <c r="T3">
-        <v>-1112.38</v>
+        <v>-1112.37</v>
       </c>
       <c r="U3">
-        <v>650.79</v>
+        <v>650.78</v>
       </c>
       <c r="V3">
         <v>-3009.05</v>
@@ -2248,10 +2248,10 @@
         <v>-1345.68</v>
       </c>
       <c r="AA3">
-        <v>1290.53</v>
+        <v>1290.52</v>
       </c>
       <c r="AB3">
-        <v>2953.22</v>
+        <v>2953.23</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -3401,37 +3401,37 @@
         <v>-10.25</v>
       </c>
       <c r="J17">
-        <v>-7.33</v>
+        <v>-6.79</v>
       </c>
       <c r="O17">
-        <v>-8.789999999999999</v>
+        <v>-8.52</v>
       </c>
       <c r="P17">
-        <v>-30.06</v>
+        <v>-29.66</v>
       </c>
       <c r="Q17">
-        <v>50.1</v>
+        <v>50.93</v>
       </c>
       <c r="R17">
-        <v>51.7</v>
+        <v>52.55</v>
       </c>
       <c r="S17">
-        <v>-26.61</v>
+        <v>-27.05</v>
       </c>
       <c r="T17">
-        <v>-4.16</v>
+        <v>-4.23</v>
       </c>
       <c r="U17">
-        <v>-10.45</v>
+        <v>-10.62</v>
       </c>
       <c r="V17">
-        <v>-12.11</v>
+        <v>-12.31</v>
       </c>
       <c r="W17">
-        <v>30.25</v>
+        <v>30.74</v>
       </c>
       <c r="X17">
-        <v>21.28</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -3460,7 +3460,7 @@
         <v>2.98</v>
       </c>
       <c r="J18">
-        <v>-2.17</v>
+        <v>-2.14</v>
       </c>
       <c r="K18">
         <v>3.61</v>
@@ -3991,28 +3991,28 @@
         <v>-30.73</v>
       </c>
       <c r="R7">
-        <v>-363.12</v>
+        <v>-363.13</v>
       </c>
       <c r="S7">
-        <v>352.11</v>
+        <v>352.12</v>
       </c>
       <c r="T7">
         <v>157.54</v>
       </c>
       <c r="U7">
-        <v>-371.87</v>
+        <v>-371.88</v>
       </c>
       <c r="V7">
-        <v>319.32</v>
+        <v>319.33</v>
       </c>
       <c r="W7">
         <v>94.95</v>
       </c>
       <c r="X7">
-        <v>446.52</v>
+        <v>446.53</v>
       </c>
       <c r="Y7">
-        <v>-552.4</v>
+        <v>-552.41</v>
       </c>
       <c r="Z7">
         <v>-128.02</v>
@@ -4267,10 +4267,10 @@
         <v>-46.05</v>
       </c>
       <c r="X10">
-        <v>141.13</v>
+        <v>141.14</v>
       </c>
       <c r="Y10">
-        <v>99.61</v>
+        <v>99.62</v>
       </c>
       <c r="Z10">
         <v>-51.2</v>
@@ -4424,7 +4424,7 @@
         <v>-71.20999999999999</v>
       </c>
       <c r="S12">
-        <v>-453.65</v>
+        <v>-453.66</v>
       </c>
       <c r="T12">
         <v>39.79</v>
@@ -4590,7 +4590,7 @@
         <v>1.1</v>
       </c>
       <c r="Q14">
-        <v>555.28</v>
+        <v>555.29</v>
       </c>
       <c r="R14">
         <v>-86.2</v>
@@ -4602,19 +4602,19 @@
         <v>196.2</v>
       </c>
       <c r="U14">
-        <v>-1602.77</v>
+        <v>-1602.78</v>
       </c>
       <c r="V14">
         <v>-806.8099999999999</v>
       </c>
       <c r="W14">
-        <v>1955.02</v>
+        <v>1955.04</v>
       </c>
       <c r="X14">
         <v>922.5599999999999</v>
       </c>
       <c r="Y14">
-        <v>-846.08</v>
+        <v>-846.09</v>
       </c>
       <c r="Z14">
         <v>67.94</v>
@@ -4673,7 +4673,7 @@
         <v>6.95</v>
       </c>
       <c r="P15">
-        <v>67.22</v>
+        <v>67.23</v>
       </c>
       <c r="Q15">
         <v>-10.83</v>
@@ -4827,37 +4827,37 @@
         <v>-14.36</v>
       </c>
       <c r="J17">
-        <v>-0.99</v>
+        <v>-0.21</v>
       </c>
       <c r="O17">
-        <v>-7.68</v>
+        <v>-7.28</v>
       </c>
       <c r="P17">
-        <v>-29.94</v>
+        <v>-29.38</v>
       </c>
       <c r="Q17">
-        <v>68.03</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="R17">
-        <v>56.14</v>
+        <v>57.41</v>
       </c>
       <c r="S17">
-        <v>-27.56</v>
+        <v>-28.18</v>
       </c>
       <c r="T17">
-        <v>-0.72</v>
+        <v>-0.74</v>
       </c>
       <c r="U17">
-        <v>-17.73</v>
+        <v>-18.13</v>
       </c>
       <c r="V17">
-        <v>-24.54</v>
+        <v>-25.1</v>
       </c>
       <c r="W17">
-        <v>43.57</v>
+        <v>44.56</v>
       </c>
       <c r="X17">
-        <v>2.81</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -4886,7 +4886,7 @@
         <v>2.25</v>
       </c>
       <c r="J18">
-        <v>-2.02</v>
+        <v>-1.97</v>
       </c>
       <c r="K18">
         <v>4.52</v>
@@ -5779,7 +5779,7 @@
         <v>50.51</v>
       </c>
       <c r="V11">
-        <v>-125.02</v>
+        <v>-125.03</v>
       </c>
       <c r="W11">
         <v>6.22</v>
@@ -5850,16 +5850,16 @@
         <v>-4.53</v>
       </c>
       <c r="Q12">
-        <v>211.21</v>
+        <v>211.2</v>
       </c>
       <c r="R12">
-        <v>610.89</v>
+        <v>610.88</v>
       </c>
       <c r="S12">
         <v>-312.35</v>
       </c>
       <c r="T12">
-        <v>-258.34</v>
+        <v>-258.33</v>
       </c>
       <c r="U12">
         <v>-142.97</v>
@@ -6603,37 +6603,37 @@
         <v>-0.21</v>
       </c>
       <c r="J21">
-        <v>-4.99</v>
+        <v>-4.9</v>
       </c>
       <c r="O21">
-        <v>-2.6</v>
+        <v>-2.55</v>
       </c>
       <c r="P21">
-        <v>-37.21</v>
+        <v>-37.15</v>
       </c>
       <c r="Q21">
-        <v>76.81</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="R21">
-        <v>54.98</v>
+        <v>55.09</v>
       </c>
       <c r="S21">
-        <v>-12.76</v>
+        <v>-12.79</v>
       </c>
       <c r="T21">
-        <v>18.1</v>
+        <v>18.13</v>
       </c>
       <c r="U21">
-        <v>-46.55</v>
+        <v>-46.64</v>
       </c>
       <c r="V21">
-        <v>-2</v>
+        <v>-2.01</v>
       </c>
       <c r="W21">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="X21">
-        <v>10.99</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -7431,7 +7431,7 @@
         <v>-328.97</v>
       </c>
       <c r="S9">
-        <v>-619.6900000000001</v>
+        <v>-619.7</v>
       </c>
       <c r="T9">
         <v>323.17</v>
@@ -7452,7 +7452,7 @@
         <v>892.8099999999999</v>
       </c>
       <c r="Z9">
-        <v>-182.57</v>
+        <v>-182.58</v>
       </c>
       <c r="AA9">
         <v>319.33</v>
@@ -7511,13 +7511,13 @@
         <v>-0.93</v>
       </c>
       <c r="Q10">
-        <v>-134.93</v>
+        <v>-134.94</v>
       </c>
       <c r="R10">
-        <v>1551.2</v>
+        <v>1551.21</v>
       </c>
       <c r="S10">
-        <v>-890.78</v>
+        <v>-890.79</v>
       </c>
       <c r="T10">
         <v>-436.18</v>
@@ -7529,7 +7529,7 @@
         <v>-785.23</v>
       </c>
       <c r="W10">
-        <v>-784.36</v>
+        <v>-784.37</v>
       </c>
       <c r="X10">
         <v>143.54</v>
@@ -7541,7 +7541,7 @@
         <v>-390.57</v>
       </c>
       <c r="AA10">
-        <v>1799.07</v>
+        <v>1799.09</v>
       </c>
       <c r="AB10">
         <v>145.19</v>
@@ -8027,7 +8027,7 @@
         <v>-4.85</v>
       </c>
       <c r="Q16">
-        <v>-38.77</v>
+        <v>-38.76</v>
       </c>
       <c r="R16">
         <v>11.69</v>
@@ -8264,37 +8264,37 @@
         <v>-9.19</v>
       </c>
       <c r="J19">
-        <v>-3.33</v>
+        <v>-3.88</v>
       </c>
       <c r="O19">
-        <v>-6.26</v>
+        <v>-6.54</v>
       </c>
       <c r="P19">
-        <v>-21.63</v>
+        <v>-22.07</v>
       </c>
       <c r="Q19">
-        <v>24.47</v>
+        <v>23.91</v>
       </c>
       <c r="R19">
-        <v>87.13</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="S19">
-        <v>-12.63</v>
+        <v>-12.34</v>
       </c>
       <c r="T19">
-        <v>-21.27</v>
+        <v>-20.78</v>
       </c>
       <c r="U19">
-        <v>-25.45</v>
+        <v>-24.87</v>
       </c>
       <c r="V19">
-        <v>-5.73</v>
+        <v>-5.6</v>
       </c>
       <c r="W19">
-        <v>39.57</v>
+        <v>38.67</v>
       </c>
       <c r="X19">
-        <v>13.92</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -8323,7 +8323,7 @@
         <v>2.17</v>
       </c>
       <c r="J20">
-        <v>4.18</v>
+        <v>4.15</v>
       </c>
       <c r="K20">
         <v>4.05</v>
@@ -9560,7 +9560,7 @@
         <v>643.79</v>
       </c>
       <c r="R15">
-        <v>-1339.08</v>
+        <v>-1339.07</v>
       </c>
       <c r="S15">
         <v>-2050.28</v>
@@ -9590,7 +9590,7 @@
         <v>896.4400000000001</v>
       </c>
       <c r="AB15">
-        <v>1166.58</v>
+        <v>1166.57</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -9966,37 +9966,37 @@
         <v>-5.71</v>
       </c>
       <c r="J20">
-        <v>-3.42</v>
+        <v>-3.39</v>
       </c>
       <c r="O20">
-        <v>-4.57</v>
+        <v>-4.55</v>
       </c>
       <c r="P20">
-        <v>-7.51</v>
+        <v>-7.48</v>
       </c>
       <c r="Q20">
-        <v>130.39</v>
+        <v>130.94</v>
       </c>
       <c r="R20">
-        <v>203.58</v>
+        <v>204.44</v>
       </c>
       <c r="S20">
-        <v>-87.52</v>
+        <v>-87.89</v>
       </c>
       <c r="T20">
-        <v>11.72</v>
+        <v>11.77</v>
       </c>
       <c r="U20">
-        <v>-215.47</v>
+        <v>-216.38</v>
       </c>
       <c r="V20">
-        <v>-62.57</v>
+        <v>-62.84</v>
       </c>
       <c r="W20">
-        <v>75.26000000000001</v>
+        <v>75.58</v>
       </c>
       <c r="X20">
-        <v>44.61</v>
+        <v>44.38</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -10515,7 +10515,7 @@
         <v>-2.95</v>
       </c>
       <c r="L6">
-        <v>17.19</v>
+        <v>17.18</v>
       </c>
       <c r="M6">
         <v>-7.51</v>
@@ -10622,7 +10622,7 @@
         <v>11.99</v>
       </c>
       <c r="S7">
-        <v>22.77</v>
+        <v>22.76</v>
       </c>
       <c r="T7">
         <v>-1.23</v>
@@ -10714,7 +10714,7 @@
         <v>-98.02</v>
       </c>
       <c r="U8">
-        <v>29.81</v>
+        <v>29.82</v>
       </c>
       <c r="V8">
         <v>52.45</v>
@@ -11713,37 +11713,37 @@
         <v>9.35</v>
       </c>
       <c r="J20">
-        <v>-5.72</v>
+        <v>-4.93</v>
       </c>
       <c r="O20">
-        <v>1.82</v>
+        <v>2.21</v>
       </c>
       <c r="P20">
-        <v>-4.16</v>
+        <v>-3.35</v>
       </c>
       <c r="Q20">
-        <v>408.34</v>
+        <v>507.89</v>
       </c>
       <c r="R20">
-        <v>233.7</v>
+        <v>290.68</v>
       </c>
       <c r="S20">
-        <v>-46.92</v>
+        <v>-58.36</v>
       </c>
       <c r="T20">
-        <v>-180.2</v>
+        <v>-224.13</v>
       </c>
       <c r="U20">
-        <v>-189.77</v>
+        <v>-236.04</v>
       </c>
       <c r="V20">
-        <v>-53.32</v>
+        <v>-66.31999999999999</v>
       </c>
       <c r="W20">
-        <v>-210.6</v>
+        <v>-261.94</v>
       </c>
       <c r="X20">
-        <v>138.77</v>
+        <v>148.22</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -11772,7 +11772,7 @@
         <v>4.02</v>
       </c>
       <c r="J21">
-        <v>-3.04</v>
+        <v>-3</v>
       </c>
       <c r="K21">
         <v>1.61</v>
@@ -12642,7 +12642,7 @@
         <v>21.41</v>
       </c>
       <c r="Z10">
-        <v>8.35</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="AA10">
         <v>73.76000000000001</v>
@@ -12787,40 +12787,40 @@
         <v>0.25</v>
       </c>
       <c r="Q12">
-        <v>-89.02</v>
+        <v>-89.01000000000001</v>
       </c>
       <c r="R12">
-        <v>3140.85</v>
+        <v>3140.95</v>
       </c>
       <c r="S12">
-        <v>6808.71</v>
+        <v>6808.92</v>
       </c>
       <c r="T12">
-        <v>5196.87</v>
+        <v>5197.03</v>
       </c>
       <c r="U12">
-        <v>-9174.68</v>
+        <v>-9174.959999999999</v>
       </c>
       <c r="V12">
-        <v>-6249.27</v>
+        <v>-6249.48</v>
       </c>
       <c r="W12">
-        <v>-3389.37</v>
+        <v>-3389.49</v>
       </c>
       <c r="X12">
-        <v>6829.63</v>
+        <v>6829.85</v>
       </c>
       <c r="Y12">
-        <v>1907.45</v>
+        <v>1907.51</v>
       </c>
       <c r="Z12">
-        <v>482.6</v>
+        <v>482.61</v>
       </c>
       <c r="AA12">
-        <v>-1970.95</v>
+        <v>-1971.01</v>
       </c>
       <c r="AB12">
-        <v>-3392.81</v>
+        <v>-3392.93</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -14400,37 +14400,37 @@
         <v>-5.75</v>
       </c>
       <c r="J31">
-        <v>-8.109999999999999</v>
+        <v>-8.789999999999999</v>
       </c>
       <c r="O31">
-        <v>-6.93</v>
+        <v>-7.27</v>
       </c>
       <c r="P31">
-        <v>-63.36</v>
+        <v>-63.62</v>
       </c>
       <c r="Q31">
-        <v>10.33</v>
+        <v>10.25</v>
       </c>
       <c r="R31">
-        <v>15.52</v>
+        <v>15.41</v>
       </c>
       <c r="S31">
-        <v>-8.1</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="T31">
-        <v>-8.460000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="U31">
-        <v>88.23</v>
+        <v>87.58</v>
       </c>
       <c r="V31">
-        <v>-11.84</v>
+        <v>-11.75</v>
       </c>
       <c r="W31">
-        <v>5.9</v>
+        <v>5.86</v>
       </c>
       <c r="X31">
-        <v>8.43</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -14459,7 +14459,7 @@
         <v>-2.85</v>
       </c>
       <c r="J32">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="K32">
         <v>0.5600000000000001</v>
@@ -15216,7 +15216,7 @@
         <v>28.88</v>
       </c>
       <c r="W9">
-        <v>18.69</v>
+        <v>18.7</v>
       </c>
       <c r="X9">
         <v>-16.93</v>
@@ -15379,7 +15379,7 @@
         <v>186.64</v>
       </c>
       <c r="T11">
-        <v>56.93</v>
+        <v>56.94</v>
       </c>
       <c r="U11">
         <v>-56.51</v>
@@ -16123,37 +16123,37 @@
         <v>-4.98</v>
       </c>
       <c r="J20">
-        <v>-3.02</v>
+        <v>-3.17</v>
       </c>
       <c r="O20">
-        <v>-4</v>
+        <v>-4.07</v>
       </c>
       <c r="P20">
-        <v>-11.92</v>
+        <v>-12.06</v>
       </c>
       <c r="Q20">
-        <v>-3.75</v>
+        <v>-3.7</v>
       </c>
       <c r="R20">
-        <v>46.29</v>
+        <v>45.72</v>
       </c>
       <c r="S20">
-        <v>-47.01</v>
+        <v>-46.43</v>
       </c>
       <c r="T20">
-        <v>-10.1</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="U20">
-        <v>62.73</v>
+        <v>61.95</v>
       </c>
       <c r="V20">
-        <v>-12.51</v>
+        <v>-12.35</v>
       </c>
       <c r="W20">
-        <v>40.2</v>
+        <v>39.7</v>
       </c>
       <c r="X20">
-        <v>24.15</v>
+        <v>25.09</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -16182,7 +16182,7 @@
         <v>4.65</v>
       </c>
       <c r="J21">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="K21">
         <v>-0.13</v>
@@ -17549,37 +17549,37 @@
         <v>-1.86</v>
       </c>
       <c r="J17">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="O17">
-        <v>-0.8</v>
+        <v>-0.86</v>
       </c>
       <c r="P17">
-        <v>-3.73</v>
+        <v>-3.84</v>
       </c>
       <c r="Q17">
-        <v>578.55</v>
+        <v>561.34</v>
       </c>
       <c r="R17">
-        <v>494.22</v>
+        <v>479.52</v>
       </c>
       <c r="S17">
-        <v>-131.59</v>
+        <v>-127.67</v>
       </c>
       <c r="T17">
-        <v>-392.64</v>
+        <v>-380.96</v>
       </c>
       <c r="U17">
-        <v>-169.43</v>
+        <v>-164.39</v>
       </c>
       <c r="V17">
-        <v>-321.67</v>
+        <v>-312.1</v>
       </c>
       <c r="W17">
-        <v>49.5</v>
+        <v>48.02</v>
       </c>
       <c r="X17">
-        <v>-6.94</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -17608,7 +17608,7 @@
         <v>-0.16</v>
       </c>
       <c r="J18">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="K18">
         <v>4.2</v>
@@ -18068,37 +18068,37 @@
         <v>-11.02</v>
       </c>
       <c r="J6">
-        <v>-1.41</v>
+        <v>-0.47</v>
       </c>
       <c r="O6">
-        <v>-6.22</v>
+        <v>-5.75</v>
       </c>
       <c r="P6">
-        <v>-12.61</v>
+        <v>-11.77</v>
       </c>
       <c r="Q6">
-        <v>105.95</v>
+        <v>113.99</v>
       </c>
       <c r="R6">
-        <v>46.78</v>
+        <v>50.33</v>
       </c>
       <c r="S6">
-        <v>-41.4</v>
+        <v>-44.54</v>
       </c>
       <c r="T6">
-        <v>-78.52</v>
+        <v>-84.48</v>
       </c>
       <c r="U6">
-        <v>-51.84</v>
+        <v>-55.77</v>
       </c>
       <c r="V6">
-        <v>21.81</v>
+        <v>23.47</v>
       </c>
       <c r="W6">
-        <v>86.66</v>
+        <v>93.23999999999999</v>
       </c>
       <c r="X6">
-        <v>10.56</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -18127,7 +18127,7 @@
         <v>3.94</v>
       </c>
       <c r="J7">
-        <v>-1.81</v>
+        <v>-1.62</v>
       </c>
       <c r="K7">
         <v>3.13</v>
